--- a/資料/状態遷移マトリクス.xlsx
+++ b/資料/状態遷移マトリクス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DB384D-C81D-4A41-8F1D-0A6C5D5FB1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB5DCF2-5C7E-4B61-A4F7-C6507E3A6698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DBE259C0-78D9-4A06-B124-2263198FE8BE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>状態遷移マトリクス</t>
     <rPh sb="0" eb="2">
@@ -119,6 +119,17 @@
     <rPh sb="4" eb="8">
       <t>ジカンセッテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -160,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -169,236 +180,288 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -410,23 +473,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -444,35 +507,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6413D7-DE9A-4B0E-96C2-D59B38E654A5}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -802,96 +877,110 @@
     <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
     <row r="3" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="1"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/資料/状態遷移マトリクス.xlsx
+++ b/資料/状態遷移マトリクス.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB5DCF2-5C7E-4B61-A4F7-C6507E3A6698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07215408-E0F0-403E-8089-BC0229997FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DBE259C0-78D9-4A06-B124-2263198FE8BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DBE259C0-78D9-4A06-B124-2263198FE8BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="状態遷移マトリクス" sheetId="1" r:id="rId1"/>
+    <sheet name="変更履歴" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>状態遷移マトリクス</t>
     <rPh sb="0" eb="2">
@@ -97,13 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リセット動作</t>
-    <rPh sb="4" eb="6">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -130,6 +124,114 @@
   </si>
   <si>
     <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短く押す</t>
+    <rPh sb="0" eb="1">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長く押す</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更履歴</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v0.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態遷移マトリクス 作成</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントに 各ボタン長押し を 追加</t>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセット動作の説明 を 変更</t>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセット動作
+（分・秒ボタン
+同時押し）</t>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名 変更</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -171,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -195,13 +297,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -213,10 +345,70 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -225,157 +417,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -463,6 +520,137 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -473,81 +661,111 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,126 +1081,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6413D7-DE9A-4B0E-96C2-D59B38E654A5}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="31"/>
+      <c r="C3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="32"/>
+      <c r="C4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="D4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="24"/>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="10" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>9</v>
+      <c r="H8" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="4">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E616E1E-2AC4-4B1C-9572-8999E849528F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="22">
+        <v>43999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="22">
+        <v>44000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>